--- a/tables/crosstab/crosstab_app_time/revealed, VS visited.xlsx
+++ b/tables/crosstab/crosstab_app_time/revealed, VS visited.xlsx
@@ -477,34 +477,34 @@
         <v>8</v>
       </c>
       <c r="D2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E2">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F2">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G2">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="H2">
-        <v>8.31</v>
+        <v>8.5</v>
       </c>
       <c r="I2">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="J2">
-        <v>13.45</v>
+        <v>13.5</v>
       </c>
       <c r="K2">
-        <v>4.16</v>
+        <v>3.75</v>
       </c>
       <c r="L2">
-        <v>15.4</v>
+        <v>15.25</v>
       </c>
       <c r="M2">
-        <v>43.28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -512,7 +512,7 @@
         <v>14</v>
       </c>
       <c r="B3">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -527,25 +527,25 @@
         <v>39</v>
       </c>
       <c r="G3">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H3">
-        <v>5.13</v>
+        <v>5</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>4.89</v>
+        <v>5</v>
       </c>
       <c r="K3">
-        <v>3.91</v>
+        <v>4</v>
       </c>
       <c r="L3">
-        <v>9.539999999999999</v>
+        <v>9.75</v>
       </c>
       <c r="M3">
-        <v>23.47</v>
+        <v>23.75</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -553,7 +553,7 @@
         <v>15</v>
       </c>
       <c r="B4">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -562,28 +562,28 @@
         <v>36</v>
       </c>
       <c r="E4">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4">
         <v>49</v>
       </c>
       <c r="G4">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H4">
-        <v>8.800000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="I4">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="J4">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="K4">
-        <v>3.42</v>
+        <v>3.25</v>
       </c>
       <c r="L4">
-        <v>11.98</v>
+        <v>12.25</v>
       </c>
       <c r="M4">
         <v>33.25</v>
@@ -594,37 +594,37 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C5">
         <v>9</v>
       </c>
       <c r="D5">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E5">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F5">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G5">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="H5">
-        <v>22.25</v>
+        <v>22</v>
       </c>
       <c r="I5">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J5">
-        <v>27.14</v>
+        <v>27.5</v>
       </c>
       <c r="K5">
-        <v>11.49</v>
+        <v>11</v>
       </c>
       <c r="L5">
-        <v>36.92</v>
+        <v>37.25</v>
       </c>
       <c r="M5">
         <v>100</v>
